--- a/KCPE RESULTS.xlsx
+++ b/KCPE RESULTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D38A75B3-E352-4A19-A509-EC8581290F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1825BE0-1A57-4488-AEFB-727E157D4E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="24000" windowHeight="12900" xr2:uid="{5FE62E88-10D4-4FA8-B211-CBF01CEF4405}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="12900" xr2:uid="{5FE62E88-10D4-4FA8-B211-CBF01CEF4405}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>NAME</t>
   </si>
@@ -294,6 +294,15 @@
   </si>
   <si>
     <t>MBOGO DENNIS MACHARIA</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -645,407 +654,481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B47B1EA-EB86-4690-B96C-3D7ED410EF8A}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
         <v>81</v>
-      </c>
-      <c r="C2">
-        <v>74</v>
       </c>
       <c r="D2">
         <v>74</v>
       </c>
       <c r="E2">
+        <v>74</v>
+      </c>
+      <c r="F2">
         <v>68</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>70</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3">
         <v>79</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>88</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>61</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>63</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>64</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
         <v>83</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>76</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>88</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>68</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>71</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>386</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5">
         <v>79</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>69</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>67</v>
-      </c>
-      <c r="E5">
-        <v>63</v>
       </c>
       <c r="F5">
         <v>63</v>
       </c>
       <c r="G5">
+        <v>63</v>
+      </c>
+      <c r="H5">
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
         <v>71</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>69</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>75</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>56</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>63</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7">
         <v>70</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>66</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>84</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>71</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>60</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>71</v>
+      <c r="B8" t="s">
+        <v>87</v>
       </c>
       <c r="C8">
         <v>71</v>
       </c>
       <c r="D8">
+        <v>71</v>
+      </c>
+      <c r="E8">
         <v>68</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>53</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>62</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9">
         <v>60</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>54</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>44</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>58</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>47</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10">
         <v>62</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>66</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>68</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>71</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>60</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>327</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11">
         <v>59</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>43</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>54</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>63</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>62</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12">
         <v>52</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>61</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>46</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>51</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>55</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13">
         <v>58</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>51</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>67</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>58</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>63</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14">
         <v>56</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>46</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>58</v>
-      </c>
-      <c r="E14">
-        <v>54</v>
       </c>
       <c r="F14">
         <v>54</v>
       </c>
       <c r="G14">
+        <v>54</v>
+      </c>
+      <c r="H14">
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15">
         <v>68</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>49</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>70</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>71</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>59</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16">
         <v>44</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>24</v>
-      </c>
-      <c r="D16">
-        <v>46</v>
       </c>
       <c r="E16">
         <v>46</v>
       </c>
       <c r="F16">
+        <v>46</v>
+      </c>
+      <c r="G16">
         <v>37</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17">
         <v>51</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>37</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>30</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>24</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>22</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>AVERAGE(C2:C17)</f>
+        <v>65.25</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:G18" si="0">AVERAGE(D2:D17)</f>
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>58.625</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/KCPE RESULTS.xlsx
+++ b/KCPE RESULTS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\silver stream\silverstream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1825BE0-1A57-4488-AEFB-727E157D4E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259F6E23-3C57-4197-A5C2-F163B508CA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="12900" xr2:uid="{5FE62E88-10D4-4FA8-B211-CBF01CEF4405}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="12900" activeTab="3" xr2:uid="{5FE62E88-10D4-4FA8-B211-CBF01CEF4405}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="89">
   <si>
     <t>NAME</t>
   </si>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B47B1EA-EB86-4690-B96C-3D7ED410EF8A}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1119,7 @@
         <v>59</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E2:E17)</f>
         <v>62.5</v>
       </c>
       <c r="F18">
@@ -1138,429 +1138,506 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B76D511-1BF8-4729-B3BC-C11FDDF46034}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2">
         <v>73</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>71</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>76</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>74</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>76</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3">
         <v>81</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>70</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>81</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>71</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>74</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
         <v>66</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>68</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>72</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>64</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>58</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
         <v>63</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>57</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>67</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>62</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>64</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
         <v>66</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>59</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>63</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>71</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>68</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7">
         <v>55</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>54</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>48</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>55</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
         <v>71</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>67</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>49</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>51</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>53</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9">
         <v>62</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>70</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>52</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>54</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>56</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10">
         <v>62</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>68</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>70</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>72</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>68</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11">
         <v>59</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>53</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>57</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>61</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>58</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12">
         <v>48</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>54</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>60</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>49</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>45</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13">
         <v>59</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>63</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>56</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>61</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>53</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14">
         <v>56</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>63</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>55</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>48</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>61</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15">
         <v>50</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>43</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>52</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>53</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>47</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
         <v>48</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>41</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>47</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>40</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>48</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17">
         <v>59</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>66</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>45</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>54</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>57</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18">
         <v>49</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>38</v>
-      </c>
-      <c r="D18">
-        <v>41</v>
       </c>
       <c r="E18">
         <v>41</v>
       </c>
       <c r="F18">
+        <v>41</v>
+      </c>
+      <c r="G18">
         <v>48</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>AVERAGE(C2:C18)</f>
+        <v>60.411764705882355</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:G19" si="0">AVERAGE(D2:D18)</f>
+        <v>59.117647058823529</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>58.294117647058826</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>58.058823529411768</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>58.176470588235297</v>
       </c>
     </row>
   </sheetData>
@@ -1570,498 +1647,584 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0400893A-11EC-4E59-8210-75EDD24BFF4D}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C22" sqref="C22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
         <v>81</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>68</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>72</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>75</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>74</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>730</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3">
         <v>78</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>58</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>76</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>72</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>71</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>755</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
         <v>75</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>70</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>80</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>72</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>64</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>761</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
         <v>82</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>73</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>78</v>
-      </c>
-      <c r="E5">
-        <v>67</v>
       </c>
       <c r="F5">
         <v>67</v>
       </c>
       <c r="G5">
+        <v>67</v>
+      </c>
+      <c r="H5">
         <v>367</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
         <v>81</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>50</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>75</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>70</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>74</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
         <v>71</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>59</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>74</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>70</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>75</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
         <v>75</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>72</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>70</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>74</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>66</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9">
         <v>73</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>63</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>72</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>60</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>59</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10">
         <v>79</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>69</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>71</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>75</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>76</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11">
         <v>65</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>50</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>40</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>45</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>74</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12">
         <v>59</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>57</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>75</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>65</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>54</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13">
         <v>72</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>70</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>72</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>68</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>64</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14">
         <v>64</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>58</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>68</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>45</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>41</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15">
         <v>66</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>62</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>67</v>
-      </c>
-      <c r="E15">
-        <v>60</v>
       </c>
       <c r="F15">
         <v>60</v>
       </c>
       <c r="G15">
+        <v>60</v>
+      </c>
+      <c r="H15">
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16">
         <v>62</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>46</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>68</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>61</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>66</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17">
         <v>69</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>54</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>56</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>60</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>55</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18">
         <v>76</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>66</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>53</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>49</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>56</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19">
         <v>78</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>54</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>45</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>56</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>46</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20">
         <v>61</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>41</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>43</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>52</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>54</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21">
         <v>63</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>43</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>49</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>45</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>43</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f>AVERAGE(C2:C21)</f>
+        <v>71.5</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:G22" si="0">AVERAGE(D2:D21)</f>
+        <v>59.15</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>65.2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>62.05</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>61.95</v>
       </c>
     </row>
   </sheetData>
@@ -2071,618 +2234,722 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DAFEC7-12BA-4BED-9D32-493B52CEB3D3}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
         <v>60</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>69</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>64</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>57</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>63</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3">
         <v>71</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>74</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>64</v>
-      </c>
-      <c r="E3">
-        <v>75</v>
       </c>
       <c r="F3">
         <v>75</v>
       </c>
       <c r="G3">
+        <v>75</v>
+      </c>
+      <c r="H3">
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
-      <c r="B5">
-        <v>73</v>
+      <c r="B5" t="s">
+        <v>88</v>
       </c>
       <c r="C5">
         <v>73</v>
       </c>
       <c r="D5">
+        <v>73</v>
+      </c>
+      <c r="E5">
         <v>79</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>60</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>67</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6">
         <v>75</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>68</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>70</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>73</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>71</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
         <v>71</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>58</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>48</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>53</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>63</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
         <v>63</v>
-      </c>
-      <c r="C8">
-        <v>64</v>
       </c>
       <c r="D8">
         <v>64</v>
       </c>
       <c r="E8">
+        <v>64</v>
+      </c>
+      <c r="F8">
         <v>61</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>63</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9">
         <v>72</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>76</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>71</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>70</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>76</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10">
         <v>63</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>56</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>78</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>76</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>75</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
-      <c r="B11">
-        <v>63</v>
+      <c r="B11" t="s">
+        <v>88</v>
       </c>
       <c r="C11">
         <v>63</v>
       </c>
       <c r="D11">
+        <v>63</v>
+      </c>
+      <c r="E11">
         <v>70</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>71</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>65</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12">
         <v>62</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>55</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>72</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>71</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>66</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13">
         <v>51</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>50</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>61</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>63</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>61</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14">
         <v>57</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>55</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>66</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>65</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>72</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
         <v>60</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>68</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>74</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>58</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>63</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
         <v>51</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>58</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>64</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>52</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>63</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17">
         <v>58</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>65</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>64</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>65</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>64</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18">
         <v>50</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>47</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>53</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>58</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>60</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19">
         <v>58</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>54</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>53</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>66</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>59</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20">
         <v>51</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>60</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>61</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>43</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>58</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21">
         <v>56</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>59</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>41</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>53</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>55</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>80</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22">
         <v>55</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>57</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>44</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>55</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>61</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23">
         <v>52</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>47</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>46</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>43</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>57</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24">
         <v>59</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>43</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>66</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>57</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>55</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25">
         <v>60</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>42</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>39</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>42</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>61</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26">
         <v>55</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>44</v>
-      </c>
-      <c r="D26">
-        <v>45</v>
       </c>
       <c r="E26">
         <v>45</v>
       </c>
       <c r="F26">
+        <v>45</v>
+      </c>
+      <c r="G26">
         <v>50</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27">
         <v>46</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>43</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>46</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>58</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>45</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f>AVERAGE(C2:C27)</f>
+        <v>59.68</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:G28" si="0">AVERAGE(D2:D27)</f>
+        <v>57.92</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>60.12</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>59.6</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>62.72</v>
       </c>
     </row>
   </sheetData>
